--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43674,6 +43674,41 @@
         <v>217300</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>380000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43709,6 +43709,41 @@
         <v>380000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>316500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43744,6 +43744,41 @@
         <v>316500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>285200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,41 @@
         <v>285200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>343000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43814,6 +43814,41 @@
         <v>343000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>259300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43849,6 +43849,41 @@
         <v>259300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>285200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43884,6 +43884,41 @@
         <v>285200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>371300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43919,6 +43919,41 @@
         <v>371300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>317000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43954,6 +43954,41 @@
         <v>317000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>416100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,41 @@
         <v>416100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>538900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,41 @@
         <v>538900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>338500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44059,6 +44059,41 @@
         <v>338500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>423800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44094,6 +44094,76 @@
         <v>423800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>347000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>367900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44164,6 +44164,76 @@
         <v>367900</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>432300</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>347100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44234,6 +44234,41 @@
         <v>347100</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>353300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44269,6 +44269,41 @@
         <v>353300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>496700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44304,6 +44304,41 @@
         <v>496700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>281100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44339,6 +44339,41 @@
         <v>281100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>443400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44374,6 +44374,76 @@
         <v>443400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>304900</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>345400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44444,6 +44444,41 @@
         <v>345400</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>399400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44479,6 +44479,41 @@
         <v>399400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>306900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2087"/>
+  <dimension ref="A1:I2088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74159,6 +74159,41 @@
         <v>306900</v>
       </c>
     </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>364500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2088"/>
+  <dimension ref="A1:I2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74194,6 +74194,41 @@
         <v>364500</v>
       </c>
     </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>499100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2089"/>
+  <dimension ref="A1:I2090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74229,6 +74229,41 @@
         <v>499100</v>
       </c>
     </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2090" t="n">
+        <v>447800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2090"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74264,6 +74264,41 @@
         <v>447800</v>
       </c>
     </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>678100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2091"/>
+  <dimension ref="A1:I2092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74299,6 +74299,41 @@
         <v>678100</v>
       </c>
     </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>482800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74334,6 +74334,41 @@
         <v>482800</v>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>537800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2093"/>
+  <dimension ref="A1:I2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74369,6 +74369,41 @@
         <v>537800</v>
       </c>
     </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2094" t="n">
+        <v>673200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2094"/>
+  <dimension ref="A1:I2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74404,6 +74404,41 @@
         <v>673200</v>
       </c>
     </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2095" t="n">
+        <v>502800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2095"/>
+  <dimension ref="A1:I2096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74439,6 +74439,41 @@
         <v>502800</v>
       </c>
     </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2096" t="n">
+        <v>577100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2096"/>
+  <dimension ref="A1:I2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74474,6 +74474,41 @@
         <v>577100</v>
       </c>
     </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>695700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2097"/>
+  <dimension ref="A1:I2098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74509,6 +74509,41 @@
         <v>695700</v>
       </c>
     </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>563000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2098"/>
+  <dimension ref="A1:I2099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74544,6 +74544,41 @@
         <v>563000</v>
       </c>
     </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>529200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2099"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74579,6 +74579,41 @@
         <v>529200</v>
       </c>
     </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>481800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74614,6 +74614,41 @@
         <v>481800</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>490000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7105.xlsx
+++ b/data/7105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74649,6 +74649,41 @@
         <v>490000</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>HCK</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>574600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
